--- a/测试单-电子书_txt-word_161026.xlsx
+++ b/测试单-电子书_txt-word_161026.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="659">
   <si>
     <t>编号</t>
   </si>
@@ -5039,6 +5039,14 @@
   </si>
   <si>
     <t>j/z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加收藏判断</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7985,8 +7993,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="P257" sqref="P257"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="N255" sqref="N255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18212,9 +18220,16 @@
       <c r="I255" s="422"/>
       <c r="J255" s="422"/>
       <c r="K255" s="422"/>
-      <c r="L255" s="422"/>
+      <c r="L255" s="422" t="s">
+        <v>657</v>
+      </c>
       <c r="M255" s="422"/>
-      <c r="N255" s="422"/>
+      <c r="N255" s="422" t="s">
+        <v>658</v>
+      </c>
+      <c r="O255" s="390">
+        <v>42670</v>
+      </c>
       <c r="P255" s="331" t="s">
         <v>655</v>
       </c>
@@ -18292,7 +18307,7 @@
   </sheetData>
   <autoFilter ref="A2:Y257">
     <filterColumn colId="8">
-      <filters blank="1">
+      <filters>
         <filter val="返回"/>
       </filters>
     </filterColumn>

--- a/测试单-电子书_txt-word_161026.xlsx
+++ b/测试单-电子书_txt-word_161026.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="660">
   <si>
     <t>编号</t>
   </si>
@@ -5047,6 +5047,10 @@
   </si>
   <si>
     <t>添加收藏判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7993,8 +7997,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="N255" sqref="N255"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O243" sqref="O243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17809,6 +17813,12 @@
       <c r="H243" s="342" t="s">
         <v>281</v>
       </c>
+      <c r="L243" s="331" t="s">
+        <v>659</v>
+      </c>
+      <c r="O243" s="390">
+        <v>42674</v>
+      </c>
       <c r="P243" s="331" t="s">
         <v>620</v>
       </c>
@@ -18307,7 +18317,7 @@
   </sheetData>
   <autoFilter ref="A2:Y257">
     <filterColumn colId="8">
-      <filters>
+      <filters blank="1">
         <filter val="返回"/>
       </filters>
     </filterColumn>

--- a/测试单-电子书_txt-word_161026.xlsx
+++ b/测试单-电子书_txt-word_161026.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="664">
   <si>
     <t>编号</t>
   </si>
@@ -5051,6 +5051,22 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂不处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个字编码是0xfdd9，这个编码没有对应的字，本身就是乱码。没法处理。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7997,8 +8013,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O243" sqref="O243"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="O253" sqref="O253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17391,10 +17407,16 @@
       <c r="I231" s="331"/>
       <c r="J231" s="331"/>
       <c r="K231" s="331"/>
-      <c r="L231" s="342"/>
+      <c r="L231" s="342" t="s">
+        <v>660</v>
+      </c>
       <c r="M231" s="331"/>
-      <c r="N231" s="331"/>
-      <c r="O231" s="390"/>
+      <c r="N231" s="331" t="s">
+        <v>661</v>
+      </c>
+      <c r="O231" s="390">
+        <v>42674</v>
+      </c>
       <c r="P231" s="331" t="s">
         <v>549</v>
       </c>
@@ -17783,6 +17805,12 @@
       </c>
       <c r="H242" s="342" t="s">
         <v>281</v>
+      </c>
+      <c r="L242" s="331" t="s">
+        <v>622</v>
+      </c>
+      <c r="O242" s="390">
+        <v>42674</v>
       </c>
       <c r="P242" s="331" t="s">
         <v>620</v>
@@ -18132,7 +18160,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="253" spans="1:16">
+    <row r="253" spans="1:16" ht="27">
       <c r="A253" s="410">
         <v>251</v>
       </c>
@@ -18160,9 +18188,16 @@
       <c r="I253" s="422"/>
       <c r="J253" s="422"/>
       <c r="K253" s="422"/>
-      <c r="L253" s="422"/>
+      <c r="L253" s="422" t="s">
+        <v>662</v>
+      </c>
       <c r="M253" s="422"/>
-      <c r="N253" s="422"/>
+      <c r="N253" s="422" t="s">
+        <v>663</v>
+      </c>
+      <c r="O253" s="390">
+        <v>42674</v>
+      </c>
       <c r="P253" s="331" t="s">
         <v>654</v>
       </c>
@@ -18317,7 +18352,7 @@
   </sheetData>
   <autoFilter ref="A2:Y257">
     <filterColumn colId="8">
-      <filters blank="1">
+      <filters>
         <filter val="返回"/>
       </filters>
     </filterColumn>
